--- a/LiquidityReport/LiquidityReport.xlsx
+++ b/LiquidityReport/LiquidityReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13350" windowHeight="10830"/>
+    <workbookView xWindow="105" yWindow="-585" windowWidth="19020" windowHeight="4620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,299 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <r>
+      <t xml:space="preserve">1.  Parameters – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>these inputs create the scenario from which the liquidity outputs are generated</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Percentage to liquidate: percentage of portfolio requiring liquidation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Daily volume: the maximum percentage of global daily trading volume to which OAM could sell at market price</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fine (%): notional haircut unsold holdings –  value per extra day required to complete liquidation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fine Cap (%): maximum haircut to be incurred on security</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Number of days: number of days over which liquidation is required</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Max days to liquidate: cut-off for number of days to liquidation </t>
+    </r>
+  </si>
+  <si>
+    <t>2. Headings</t>
+  </si>
+  <si>
+    <r>
+      <t>I)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Number Non-liquidated positions: refers to the number of financial instruments held in the portfolio which would be unable to be fully liquidated within the parameters specified </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>III)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unsold value % of NAV: amount remaining from specified % the fund manager is required to sell, expressed as a percentage of the fund’s net asset value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IV)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Value Greater Max Day Limit % of NAV: current value of positions unable to be liquidated within the maximum period specified, expressed as a percentage of the fund’s net asset value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Weighted Number of Days to 100% Liquidated: weighted average number of days for liquidation of the whole portfolio, calculated as ∑(position value x days to liquidate)/Gross  fund value</t>
+    </r>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <r>
+      <t>II)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Total Fine % NAV: the amount which those positions which would not be able to be liquidated in the specified “number of days”, would cost the fund, based on the “fine”/discount at which those positions would have to be sold in order to complete their liquidation (at the specified “daily volume”), used as a percentage of the fund’s net asset value</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +315,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,12 +367,147 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,13 +803,434 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
+  <dimension ref="A30:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1">
+      <c r="A32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="1:13" ht="7.5" customHeight="1">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1">
+      <c r="A34" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="1:13" ht="7.5" customHeight="1">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1">
+      <c r="A36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" spans="1:13" ht="7.5" customHeight="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="10"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1">
+      <c r="A38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" spans="1:13" ht="7.5" customHeight="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="10"/>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1">
+      <c r="A40" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="10"/>
+    </row>
+    <row r="41" spans="1:13" ht="7.5" customHeight="1">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="10"/>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1">
+      <c r="A42" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="10"/>
+    </row>
+    <row r="43" spans="1:13" ht="15" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" ht="26.25" customHeight="1">
+      <c r="A44" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="14"/>
+    </row>
+    <row r="45" spans="1:13" ht="7.5" customHeight="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="10"/>
+    </row>
+    <row r="46" spans="1:13" ht="39.75" customHeight="1">
+      <c r="A46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="19"/>
+    </row>
+    <row r="47" spans="1:13" ht="7.5" customHeight="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="10"/>
+    </row>
+    <row r="48" spans="1:13" ht="30" customHeight="1">
+      <c r="A48" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="14"/>
+    </row>
+    <row r="49" spans="1:17" ht="7.5" customHeight="1">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="10"/>
+    </row>
+    <row r="50" spans="1:17" ht="27" customHeight="1">
+      <c r="A50" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="14"/>
+    </row>
+    <row r="51" spans="1:17" ht="7.5" customHeight="1">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="10"/>
+    </row>
+    <row r="52" spans="1:17" ht="31.5" customHeight="1">
+      <c r="A52" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="17"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="24">
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="A43:M43"/>
+    <mergeCell ref="A44:M44"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="A47:M47"/>
+    <mergeCell ref="A30:M30"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="A32:M32"/>
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="A34:M34"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="A49:M49"/>
+    <mergeCell ref="A50:M50"/>
+    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="A53:Q53"/>
+    <mergeCell ref="A52:M52"/>
+    <mergeCell ref="A40:M40"/>
+    <mergeCell ref="A41:M41"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/LiquidityReport/LiquidityReport.xlsx
+++ b/LiquidityReport/LiquidityReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="-585" windowWidth="19020" windowHeight="4620"/>
+    <workbookView xWindow="105" yWindow="4125" windowWidth="19020" windowHeight="4620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,9 +451,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -463,36 +498,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -501,12 +506,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,431 +802,436 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A30:Q53"/>
+  <dimension ref="A30:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R53" sqref="R53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="30" spans="1:13">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:14">
+      <c r="A30" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1">
-      <c r="A31" s="5" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
+      <c r="A31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1">
-      <c r="A32" s="8" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
+      <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="10"/>
-    </row>
-    <row r="33" spans="1:13" ht="7.5" customHeight="1">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="10"/>
-    </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1">
-      <c r="A34" s="8" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" ht="7.5" customHeight="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
+      <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="10"/>
-    </row>
-    <row r="35" spans="1:13" ht="7.5" customHeight="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1">
-      <c r="A36" s="8" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" ht="7.5" customHeight="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
+      <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="10"/>
-    </row>
-    <row r="37" spans="1:13" ht="7.5" customHeight="1">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="10"/>
-    </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1">
-      <c r="A38" s="8" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" ht="7.5" customHeight="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1">
+      <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="10"/>
-    </row>
-    <row r="39" spans="1:13" ht="7.5" customHeight="1">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="10"/>
-    </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1">
-      <c r="A40" s="8" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" ht="7.5" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="10"/>
-    </row>
-    <row r="41" spans="1:13" ht="7.5" customHeight="1">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="10"/>
-    </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1">
-      <c r="A42" s="8" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" ht="7.5" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
+      <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="10"/>
-    </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1">
-      <c r="A43" s="5" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1">
+      <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="7"/>
-    </row>
-    <row r="44" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A44" s="12" t="s">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="6"/>
+    </row>
+    <row r="44" spans="1:14" ht="26.25" customHeight="1">
+      <c r="A44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="14"/>
-    </row>
-    <row r="45" spans="1:13" ht="7.5" customHeight="1">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="10"/>
-    </row>
-    <row r="46" spans="1:13" ht="39.75" customHeight="1">
-      <c r="A46" s="11" t="s">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="1:14" ht="7.5" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" ht="39.75" customHeight="1">
+      <c r="A46" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="19"/>
-    </row>
-    <row r="47" spans="1:13" ht="7.5" customHeight="1">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="10"/>
-    </row>
-    <row r="48" spans="1:13" ht="30" customHeight="1">
-      <c r="A48" s="12" t="s">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="12"/>
+    </row>
+    <row r="47" spans="1:14" ht="7.5" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" ht="30" customHeight="1">
+      <c r="A48" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="14"/>
-    </row>
-    <row r="49" spans="1:17" ht="7.5" customHeight="1">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="10"/>
-    </row>
-    <row r="50" spans="1:17" ht="27" customHeight="1">
-      <c r="A50" s="12" t="s">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="1:14" ht="7.5" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" ht="27" customHeight="1">
+      <c r="A50" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="14"/>
-    </row>
-    <row r="51" spans="1:17" ht="7.5" customHeight="1">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="10"/>
-    </row>
-    <row r="52" spans="1:17" ht="31.5" customHeight="1">
-      <c r="A52" s="15" t="s">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="1:14" ht="7.5" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" ht="31.5" customHeight="1">
+      <c r="A52" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
       <c r="M52" s="17"/>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
+      <c r="N52" s="18"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="24">
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A43:M43"/>
-    <mergeCell ref="A44:M44"/>
-    <mergeCell ref="A45:M45"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="A47:M47"/>
-    <mergeCell ref="A30:M30"/>
-    <mergeCell ref="A31:M31"/>
-    <mergeCell ref="A32:M32"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="A34:M34"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A48:M48"/>
-    <mergeCell ref="A49:M49"/>
-    <mergeCell ref="A50:M50"/>
-    <mergeCell ref="A51:M51"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A37:M37"/>
-    <mergeCell ref="A38:M38"/>
-    <mergeCell ref="A39:M39"/>
-    <mergeCell ref="A53:Q53"/>
-    <mergeCell ref="A52:M52"/>
-    <mergeCell ref="A40:M40"/>
-    <mergeCell ref="A41:M41"/>
+  <mergeCells count="23">
+    <mergeCell ref="A50:N50"/>
+    <mergeCell ref="A51:N51"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="A30:N30"/>
+    <mergeCell ref="A31:N31"/>
+    <mergeCell ref="A32:N32"/>
+    <mergeCell ref="A33:N33"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="A35:N35"/>
+    <mergeCell ref="A36:N36"/>
+    <mergeCell ref="A37:N37"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A41:N41"/>
+    <mergeCell ref="A42:N42"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A46:N46"/>
+    <mergeCell ref="A47:N47"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="A49:N49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/LiquidityReport/LiquidityReport.xlsx
+++ b/LiquidityReport/LiquidityReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="4125" windowWidth="19020" windowHeight="4620"/>
+    <workbookView xWindow="105" yWindow="1665" windowWidth="19020" windowHeight="4620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
   </si>
   <si>
     <r>
-      <t>5)</t>
+      <t>6)</t>
     </r>
     <r>
       <rPr>
@@ -149,12 +149,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Number of days: number of days over which liquidation is required</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6)</t>
+      <t xml:space="preserve">Max days to liquidate: cut-off for number of days to liquidation </t>
+    </r>
+  </si>
+  <si>
+    <t>2. Headings</t>
+  </si>
+  <si>
+    <r>
+      <t>I)</t>
     </r>
     <r>
       <rPr>
@@ -163,7 +166,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">       </t>
+      <t xml:space="preserve">                     </t>
     </r>
     <r>
       <rPr>
@@ -173,15 +176,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Max days to liquidate: cut-off for number of days to liquidation </t>
-    </r>
-  </si>
-  <si>
-    <t>2. Headings</t>
-  </si>
-  <si>
-    <r>
-      <t>I)</t>
+      <t xml:space="preserve">Number Non-liquidated positions: refers to the number of financial instruments held in the portfolio which would be unable to be fully liquidated within the parameters specified </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>III)</t>
     </r>
     <r>
       <rPr>
@@ -190,7 +190,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">                     </t>
+      <t xml:space="preserve">                  </t>
     </r>
     <r>
       <rPr>
@@ -200,12 +200,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Number Non-liquidated positions: refers to the number of financial instruments held in the portfolio which would be unable to be fully liquidated within the parameters specified </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>III)</t>
+      <t>Unsold value % of NAV: amount remaining from specified % the fund manager is required to sell, expressed as a percentage of the fund’s net asset value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IV)</t>
     </r>
     <r>
       <rPr>
@@ -214,7 +214,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">                  </t>
+      <t xml:space="preserve">                 </t>
     </r>
     <r>
       <rPr>
@@ -224,12 +224,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Unsold value % of NAV: amount remaining from specified % the fund manager is required to sell, expressed as a percentage of the fund’s net asset value</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>IV)</t>
+      <t>Value Greater Max Day Limit % of NAV: current value of positions unable to be liquidated within the maximum period specified, expressed as a percentage of the fund’s net asset value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V)</t>
     </r>
     <r>
       <rPr>
@@ -238,7 +238,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">                 </t>
+      <t xml:space="preserve">                   </t>
     </r>
     <r>
       <rPr>
@@ -248,12 +248,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Value Greater Max Day Limit % of NAV: current value of positions unable to be liquidated within the maximum period specified, expressed as a percentage of the fund’s net asset value</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>V)</t>
+      <t>Weighted Number of Days to 100% Liquidated: weighted average number of days for liquidation of the whole portfolio, calculated as ∑(position value x days to liquidate)/Gross  fund value</t>
+    </r>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <r>
+      <t>II)</t>
     </r>
     <r>
       <rPr>
@@ -272,35 +275,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Weighted Number of Days to 100% Liquidated: weighted average number of days for liquidation of the whole portfolio, calculated as ∑(position value x days to liquidate)/Gross  fund value</t>
-    </r>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <r>
-      <t>II)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">                   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Total Fine % NAV: the amount which those positions which would not be able to be liquidated in the specified “number of days”, would cost the fund, based on the “fine”/discount at which those positions would have to be sold in order to complete their liquidation (at the specified “daily volume”), used as a percentage of the fund’s net asset value</t>
     </r>
+  </si>
+  <si>
+    <t>5)    Number of days: number of days over which liquidation is required</t>
   </si>
 </sst>
 </file>
@@ -454,6 +433,15 @@
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -472,15 +460,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -489,6 +468,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -497,15 +485,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,187 +783,185 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A30:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R53" sqref="R53"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="30" spans="1:14">
-      <c r="A30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="15"/>
+      <c r="A30" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="18"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="9"/>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="3"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" ht="7.5" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="3"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14" ht="7.5" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="3"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="3"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="6"/>
     </row>
     <row r="37" spans="1:14" ht="7.5" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="3"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="3"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" ht="7.5" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="3"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1001,94 +978,94 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="7.5" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="3"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="6"/>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1">
+      <c r="A43" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" ht="15" customHeight="1">
-      <c r="A43" s="4" t="s">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="1:14" ht="26.25" customHeight="1">
+      <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="6"/>
-    </row>
-    <row r="44" spans="1:14" ht="26.25" customHeight="1">
-      <c r="A44" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="9"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14" ht="7.5" customHeight="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="3"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="6"/>
     </row>
     <row r="46" spans="1:14" ht="39.75" customHeight="1">
       <c r="A46" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -1105,106 +1082,106 @@
       <c r="N46" s="12"/>
     </row>
     <row r="47" spans="1:14" ht="7.5" customHeight="1">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="3"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="30" customHeight="1">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" ht="7.5" customHeight="1">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="1:14" ht="27" customHeight="1">
+      <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="9"/>
-    </row>
-    <row r="49" spans="1:14" ht="7.5" customHeight="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="1:14" ht="27" customHeight="1">
-      <c r="A50" s="7" t="s">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:14" ht="7.5" customHeight="1">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="1:14" ht="31.5" customHeight="1">
+      <c r="A52" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="9"/>
-    </row>
-    <row r="51" spans="1:14" ht="7.5" customHeight="1">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="1:14" ht="31.5" customHeight="1">
-      <c r="A52" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="18"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="15"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1225,13 +1202,13 @@
     <mergeCell ref="A40:N40"/>
     <mergeCell ref="A41:N41"/>
     <mergeCell ref="A42:N42"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="A49:N49"/>
     <mergeCell ref="A43:N43"/>
     <mergeCell ref="A44:N44"/>
     <mergeCell ref="A45:N45"/>
     <mergeCell ref="A46:N46"/>
     <mergeCell ref="A47:N47"/>
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="A49:N49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/LiquidityReport/LiquidityReport.xlsx
+++ b/LiquidityReport/LiquidityReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="1665" windowWidth="19020" windowHeight="4620"/>
+    <workbookView xWindow="105" yWindow="4185" windowWidth="19020" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
   </si>
   <si>
     <r>
-      <t>2)</t>
+      <t>3)</t>
     </r>
     <r>
       <rPr>
@@ -77,12 +77,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Daily volume: the maximum percentage of global daily trading volume to which OAM could sell at market price</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3)</t>
+      <t>Fine (%): notional haircut unsold holdings –  value per extra day required to complete liquidation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4)</t>
     </r>
     <r>
       <rPr>
@@ -101,12 +101,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Fine (%): notional haircut unsold holdings –  value per extra day required to complete liquidation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4)</t>
+      <t>Fine Cap (%): maximum haircut to be incurred on security</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6)</t>
     </r>
     <r>
       <rPr>
@@ -125,12 +125,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Fine Cap (%): maximum haircut to be incurred on security</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6)</t>
+      <t xml:space="preserve">Max days to liquidate: cut-off for number of days to liquidation </t>
+    </r>
+  </si>
+  <si>
+    <t>2. Headings</t>
+  </si>
+  <si>
+    <r>
+      <t>I)</t>
     </r>
     <r>
       <rPr>
@@ -139,7 +142,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">       </t>
+      <t xml:space="preserve">                     </t>
     </r>
     <r>
       <rPr>
@@ -149,15 +152,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Max days to liquidate: cut-off for number of days to liquidation </t>
-    </r>
-  </si>
-  <si>
-    <t>2. Headings</t>
-  </si>
-  <si>
-    <r>
-      <t>I)</t>
+      <t xml:space="preserve">Number Non-liquidated positions: refers to the number of financial instruments held in the portfolio which would be unable to be fully liquidated within the parameters specified </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>III)</t>
     </r>
     <r>
       <rPr>
@@ -166,7 +166,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">                     </t>
+      <t xml:space="preserve">                  </t>
     </r>
     <r>
       <rPr>
@@ -176,12 +176,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Number Non-liquidated positions: refers to the number of financial instruments held in the portfolio which would be unable to be fully liquidated within the parameters specified </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>III)</t>
+      <t>Unsold value % of NAV: amount remaining from specified % the fund manager is required to sell, expressed as a percentage of the fund’s net asset value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IV)</t>
     </r>
     <r>
       <rPr>
@@ -190,7 +190,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">                  </t>
+      <t xml:space="preserve">                 </t>
     </r>
     <r>
       <rPr>
@@ -200,12 +200,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Unsold value % of NAV: amount remaining from specified % the fund manager is required to sell, expressed as a percentage of the fund’s net asset value</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>IV)</t>
+      <t>Value Greater Max Day Limit % of NAV: current value of positions unable to be liquidated within the maximum period specified, expressed as a percentage of the fund’s net asset value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V)</t>
     </r>
     <r>
       <rPr>
@@ -214,7 +214,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">                 </t>
+      <t xml:space="preserve">                   </t>
     </r>
     <r>
       <rPr>
@@ -224,12 +224,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Value Greater Max Day Limit % of NAV: current value of positions unable to be liquidated within the maximum period specified, expressed as a percentage of the fund’s net asset value</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>V)</t>
+      <t>Weighted Number of Days to 100% Liquidated: weighted average number of days for liquidation of the whole portfolio, calculated as ∑(position value x days to liquidate)/Gross  fund value</t>
+    </r>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <r>
+      <t>II)</t>
     </r>
     <r>
       <rPr>
@@ -248,15 +251,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Weighted Number of Days to 100% Liquidated: weighted average number of days for liquidation of the whole portfolio, calculated as ∑(position value x days to liquidate)/Gross  fund value</t>
-    </r>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <r>
-      <t>II)</t>
+      <t>Total Fine % NAV: the amount which those positions which would not be able to be liquidated in the specified “number of days”, would cost the fund, based on the “fine”/discount at which those positions would have to be sold in order to complete their liquidation (at the specified “daily volume”), used as a percentage of the fund’s net asset value</t>
+    </r>
+  </si>
+  <si>
+    <t>5)    Number of days: number of days over which liquidation is required</t>
+  </si>
+  <si>
+    <r>
+      <t>2)</t>
     </r>
     <r>
       <rPr>
@@ -265,7 +268,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">                   </t>
+      <t xml:space="preserve">       </t>
     </r>
     <r>
       <rPr>
@@ -275,11 +278,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Total Fine % NAV: the amount which those positions which would not be able to be liquidated in the specified “number of days”, would cost the fund, based on the “fine”/discount at which those positions would have to be sold in order to complete their liquidation (at the specified “daily volume”), used as a percentage of the fund’s net asset value</t>
-    </r>
-  </si>
-  <si>
-    <t>5)    Number of days: number of days over which liquidation is required</t>
+      <t>Daily volume: the maximum percentage of global daily trading volume (as per Bloomberg 30-day volume) to which OAM could sell at market price</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -433,6 +433,15 @@
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -441,14 +450,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -467,24 +485,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,188 +781,181 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A30:N52"/>
+  <dimension ref="A31:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="30" spans="1:14">
-      <c r="A30" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="18"/>
-    </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:15">
+      <c r="A31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" ht="15" customHeight="1">
+      <c r="A32" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1">
-      <c r="A32" s="4" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1">
+      <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="1:14" ht="7.5" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1">
-      <c r="A34" s="4" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" ht="7.5" customHeight="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" ht="7.5" customHeight="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" ht="15" customHeight="1">
+      <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="1:14" ht="7.5" customHeight="1">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1">
-      <c r="A36" s="4" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" ht="7.5" customHeight="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" ht="15" customHeight="1">
+      <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="1:14" ht="7.5" customHeight="1">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="1:14" ht="7.5" customHeight="1">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="6"/>
-    </row>
-    <row r="40" spans="1:14" ht="15" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" ht="7.5" customHeight="1">
+      <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -975,10 +968,13 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" ht="7.5" customHeight="1">
-      <c r="A41" s="4"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" ht="15" customHeight="1">
+      <c r="A41" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -991,64 +987,68 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="6"/>
-    </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1">
-      <c r="A42" s="4" t="s">
+      <c r="N41" s="5"/>
+      <c r="O41" s="6"/>
+    </row>
+    <row r="42" spans="1:15" ht="7.5" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" ht="15" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" ht="15" customHeight="1">
+      <c r="A44" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="6"/>
-    </row>
-    <row r="43" spans="1:14" ht="15" customHeight="1">
-      <c r="A43" s="7" t="s">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="15"/>
+    </row>
+    <row r="45" spans="1:15" ht="26.25" customHeight="1">
+      <c r="A45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="9"/>
-    </row>
-    <row r="44" spans="1:14" ht="26.25" customHeight="1">
-      <c r="A44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14" ht="7.5" customHeight="1">
-      <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -1061,46 +1061,47 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
-      <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="1:14" ht="39.75" customHeight="1">
-      <c r="A46" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="12"/>
-    </row>
-    <row r="47" spans="1:14" ht="7.5" customHeight="1">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="1:14" ht="30" customHeight="1">
-      <c r="A48" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="N45" s="5"/>
+      <c r="O45" s="6"/>
+    </row>
+    <row r="46" spans="1:15" ht="7.5" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" ht="39.75" customHeight="1">
+      <c r="A47" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="18"/>
+    </row>
+    <row r="48" spans="1:15" ht="7.5" customHeight="1">
+      <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1113,10 +1114,13 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="1:14" ht="7.5" customHeight="1">
-      <c r="A49" s="4"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" ht="30" customHeight="1">
+      <c r="A49" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -1129,12 +1133,11 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
-      <c r="N49" s="6"/>
-    </row>
-    <row r="50" spans="1:14" ht="27" customHeight="1">
-      <c r="A50" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="N49" s="5"/>
+      <c r="O49" s="6"/>
+    </row>
+    <row r="50" spans="1:15" ht="7.5" customHeight="1">
+      <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1147,10 +1150,13 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="1:14" ht="7.5" customHeight="1">
-      <c r="A51" s="4"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" ht="27" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -1163,52 +1169,71 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="6"/>
-    </row>
-    <row r="52" spans="1:14" ht="31.5" customHeight="1">
-      <c r="A52" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="15"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="6"/>
+    </row>
+    <row r="52" spans="1:15" ht="7.5" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" ht="31.5" customHeight="1">
+      <c r="A53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="9"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="23">
-    <mergeCell ref="A50:N50"/>
-    <mergeCell ref="A51:N51"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="A30:N30"/>
-    <mergeCell ref="A31:N31"/>
-    <mergeCell ref="A32:N32"/>
-    <mergeCell ref="A33:N33"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="A35:N35"/>
-    <mergeCell ref="A36:N36"/>
-    <mergeCell ref="A37:N37"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A40:N40"/>
-    <mergeCell ref="A41:N41"/>
-    <mergeCell ref="A42:N42"/>
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="A49:N49"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="A45:N45"/>
-    <mergeCell ref="A46:N46"/>
-    <mergeCell ref="A47:N47"/>
+    <mergeCell ref="A48:O48"/>
+    <mergeCell ref="A49:O49"/>
+    <mergeCell ref="A43:O43"/>
+    <mergeCell ref="A44:O44"/>
+    <mergeCell ref="A45:O45"/>
+    <mergeCell ref="A46:O46"/>
+    <mergeCell ref="A47:O47"/>
+    <mergeCell ref="A50:O50"/>
+    <mergeCell ref="A51:O51"/>
+    <mergeCell ref="A52:O52"/>
+    <mergeCell ref="A53:O53"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="A32:O32"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:O34"/>
+    <mergeCell ref="A35:O35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A37:O37"/>
+    <mergeCell ref="A38:O38"/>
+    <mergeCell ref="A39:O39"/>
+    <mergeCell ref="A40:O40"/>
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A42:O42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/LiquidityReport/LiquidityReport.xlsx
+++ b/LiquidityReport/LiquidityReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="4185" windowWidth="19020" windowHeight="10485"/>
+    <workbookView xWindow="19305" yWindow="4185" windowWidth="19020" windowHeight="10485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>1)       Percentage to liquidate: percentage of portfolio requiring liquidation                                                                                                         </t>
+  </si>
+  <si>
+    <t>                                                                                                               </t>
+  </si>
+  <si>
+    <t>2)       Daily volume: the maximum percentage of global daily trading volume (as per Bloomberg 30-day volume) to which OAM could sell at market price                                                                                                                                                                                                                 </t>
+  </si>
+  <si>
+    <t>3)       Haircut (%): notional haircut on unsold holdings –  value per extra day required to complete liquidation                                                                                                     </t>
+  </si>
+  <si>
+    <t>4)       Haircut Cap (%): maximum haircut to be incurred on security                                                                                                          </t>
+  </si>
+  <si>
+    <t>6)       Max days to liquidate: cut-off for number of days to liquidation     </t>
+  </si>
+  <si>
+    <t>5)       Number of days: number of days over which liquidation is required                                                                                                </t>
+  </si>
+  <si>
+    <t>I)        Non-liquidated (no.): refers to the number of financial instruments held in the portfolio which would be unable to be fully liquidated within the parameters specified                                                                                                    </t>
+  </si>
+  <si>
+    <t>II)       Non-liquidated (% NAV): the amount which those positions which would not be able to be liquidated in the specified “number of days”, would cost the fund, based on the “fine”/discount at which those positions would have to be sold in order to complete their liquidation (at the specified “daily volume”), used as a percentage of the fund’s net asset value                                                                                                    </t>
+  </si>
+  <si>
+    <t>III)      Total Haircut (%NAV): amount remaining from specified % the fund manager is required to sell, expressed as a percentage of the fund’s net asset value                                                                                                             </t>
+  </si>
+  <si>
+    <t>IV)       Value Greater Max Day Limit (%NAV): current value of positions unable to be liquidated within the maximum period specified, expressed as a percentage of the fund’s net asset value                                                                                                           </t>
+  </si>
+  <si>
+    <t>V)        Weighted Number of Days to 100% Liquidated: weighted average number of days for liquidation of the whole portfolio, calculated as ∑(position value x days to liquidate)/Gross  fund value                                                                                                   </t>
+  </si>
   <si>
     <r>
-      <t xml:space="preserve">1.  Parameters – </t>
+      <t xml:space="preserve">1.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stress test</t>
     </r>
     <r>
       <rPr>
@@ -29,21 +79,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>these inputs create the scenario from which the liquidity outputs are generated</t>
+      <t xml:space="preserve">  – these inputs create the scenario from which the liquidity outputs are generated                                                                                                             </t>
     </r>
   </si>
   <si>
     <r>
-      <t>1)</t>
+      <t xml:space="preserve">2. </t>
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <b/>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">       </t>
+      <t>Headings  </t>
     </r>
     <r>
       <rPr>
@@ -53,232 +105,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Percentage to liquidate: percentage of portfolio requiring liquidation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fine (%): notional haircut unsold holdings –  value per extra day required to complete liquidation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fine Cap (%): maximum haircut to be incurred on security</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Max days to liquidate: cut-off for number of days to liquidation </t>
-    </r>
-  </si>
-  <si>
-    <t>2. Headings</t>
-  </si>
-  <si>
-    <r>
-      <t>I)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">                     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Number Non-liquidated positions: refers to the number of financial instruments held in the portfolio which would be unable to be fully liquidated within the parameters specified </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>III)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">                  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Unsold value % of NAV: amount remaining from specified % the fund manager is required to sell, expressed as a percentage of the fund’s net asset value</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>IV)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">                 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Value Greater Max Day Limit % of NAV: current value of positions unable to be liquidated within the maximum period specified, expressed as a percentage of the fund’s net asset value</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>V)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">                   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Weighted Number of Days to 100% Liquidated: weighted average number of days for liquidation of the whole portfolio, calculated as ∑(position value x days to liquidate)/Gross  fund value</t>
-    </r>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <r>
-      <t>II)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">                   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Total Fine % NAV: the amount which those positions which would not be able to be liquidated in the specified “number of days”, would cost the fund, based on the “fine”/discount at which those positions would have to be sold in order to complete their liquidation (at the specified “daily volume”), used as a percentage of the fund’s net asset value</t>
-    </r>
-  </si>
-  <si>
-    <t>5)    Number of days: number of days over which liquidation is required</t>
-  </si>
-  <si>
-    <r>
-      <t>2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Daily volume: the maximum percentage of global daily trading volume (as per Bloomberg 30-day volume) to which OAM could sell at market price</t>
+      <t>                                                                                                      </t>
     </r>
   </si>
 </sst>
@@ -286,17 +113,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -318,10 +137,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -430,60 +251,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -781,53 +575,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A31:O53"/>
+  <dimension ref="A31:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="31" spans="1:15">
-      <c r="A31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="12"/>
-    </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1">
-      <c r="A32" s="13" t="s">
+      <c r="A31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="15"/>
-    </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -846,8 +638,10 @@
       <c r="N33" s="2"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A34" s="1"/>
+    <row r="34" spans="1:15" ht="15" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -863,9 +657,9 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1">
+    <row r="35" spans="1:15" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -882,8 +676,10 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -901,7 +697,7 @@
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -918,8 +714,10 @@
       <c r="N37" s="2"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A38" s="1"/>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -935,9 +733,9 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1">
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -954,8 +752,10 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A40" s="1"/>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -971,27 +771,29 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="6"/>
-    </row>
-    <row r="42" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A42" s="1"/>
+    <row r="41" spans="1:15" ht="33" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" ht="45.75" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1007,9 +809,9 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1">
+    <row r="43" spans="1:15" ht="30" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1026,213 +828,81 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1">
-      <c r="A44" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="15"/>
-    </row>
-    <row r="45" spans="1:15" ht="26.25" customHeight="1">
-      <c r="A45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="6"/>
-    </row>
-    <row r="46" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="1:15" ht="39.75" customHeight="1">
-      <c r="A47" s="16" t="s">
+    <row r="44" spans="1:15" ht="30" customHeight="1">
+      <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="18"/>
-    </row>
-    <row r="48" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="1:15" ht="30" customHeight="1">
-      <c r="A49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="6"/>
-    </row>
-    <row r="50" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="1:15" ht="27" customHeight="1">
-      <c r="A51" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="6"/>
-    </row>
-    <row r="52" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A53" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="9"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" ht="30" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="9"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="23">
-    <mergeCell ref="A48:O48"/>
-    <mergeCell ref="A49:O49"/>
-    <mergeCell ref="A43:O43"/>
+  <mergeCells count="16">
     <mergeCell ref="A44:O44"/>
     <mergeCell ref="A45:O45"/>
-    <mergeCell ref="A46:O46"/>
-    <mergeCell ref="A47:O47"/>
-    <mergeCell ref="A50:O50"/>
-    <mergeCell ref="A51:O51"/>
-    <mergeCell ref="A52:O52"/>
-    <mergeCell ref="A53:O53"/>
     <mergeCell ref="A31:O31"/>
     <mergeCell ref="A32:O32"/>
     <mergeCell ref="A33:O33"/>
     <mergeCell ref="A34:O34"/>
     <mergeCell ref="A35:O35"/>
     <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A39:O39"/>
     <mergeCell ref="A37:O37"/>
     <mergeCell ref="A38:O38"/>
-    <mergeCell ref="A39:O39"/>
+    <mergeCell ref="A43:O43"/>
     <mergeCell ref="A40:O40"/>
     <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A46:O46"/>
     <mergeCell ref="A42:O42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LiquidityReport/LiquidityReport.xlsx
+++ b/LiquidityReport/LiquidityReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19305" yWindow="4185" windowWidth="19020" windowHeight="10485"/>
+    <workbookView xWindow="105" yWindow="4125" windowWidth="19020" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,72 +575,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A31:O46"/>
+  <dimension ref="A33:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="31" spans="1:15">
-      <c r="A31" s="4" t="s">
+    <row r="33" spans="1:15">
+      <c r="A33" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="6"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="1" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -657,9 +621,9 @@
       <c r="N34" s="2"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="14.25" customHeight="1">
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -676,9 +640,9 @@
       <c r="N35" s="2"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -695,9 +659,9 @@
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1">
+    <row r="37" spans="1:15" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -716,7 +680,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -733,9 +697,9 @@
       <c r="N38" s="2"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" ht="15" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -754,7 +718,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -771,9 +735,9 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="33" customHeight="1">
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -790,9 +754,9 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="45.75" customHeight="1">
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -809,9 +773,9 @@
       <c r="N42" s="2"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="30" customHeight="1">
+    <row r="43" spans="1:15" ht="33" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -828,9 +792,9 @@
       <c r="N43" s="2"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="30" customHeight="1">
+    <row r="44" spans="1:15" ht="45.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -849,7 +813,7 @@
     </row>
     <row r="45" spans="1:15" ht="30" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -866,44 +830,82 @@
       <c r="N45" s="2"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:15" ht="30" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" ht="30" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="9"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="9"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
+    <mergeCell ref="A48:O48"/>
     <mergeCell ref="A44:O44"/>
-    <mergeCell ref="A45:O45"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="A32:O32"/>
+    <mergeCell ref="A46:O46"/>
+    <mergeCell ref="A47:O47"/>
     <mergeCell ref="A33:O33"/>
     <mergeCell ref="A34:O34"/>
     <mergeCell ref="A35:O35"/>
     <mergeCell ref="A36:O36"/>
-    <mergeCell ref="A39:O39"/>
     <mergeCell ref="A37:O37"/>
     <mergeCell ref="A38:O38"/>
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A39:O39"/>
+    <mergeCell ref="A40:O40"/>
+    <mergeCell ref="A45:O45"/>
+    <mergeCell ref="A42:O42"/>
     <mergeCell ref="A43:O43"/>
-    <mergeCell ref="A40:O40"/>
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A46:O46"/>
-    <mergeCell ref="A42:O42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
